--- a/sample(online class).xlsx
+++ b/sample(online class).xlsx
@@ -11,12 +11,11 @@
     <sheet name="데이터" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>8:50~9:40</t>
   </si>
@@ -177,19 +176,16 @@
     <t>이정훈</t>
   </si>
   <si>
+    <t>이 워크시트의 데이터로 시간표가 만들어짐</t>
+  </si>
+  <si>
+    <t>&lt;- 왼쪽 표에 교실을 입력하면 자동으로 생성됨</t>
+  </si>
+  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>이 워크시트의 데이터로 시간표가 만들어짐</t>
-  </si>
-  <si>
-    <t>&lt;- 왼쪽 표에 교실 입력하면 자동으로 생성됨</t>
-  </si>
-  <si>
     <t>&lt;- Zoom, Google Meet 밑에 링크를 입력하면 생성됨</t>
-  </si>
-  <si>
-    <t>링크</t>
   </si>
   <si>
     <t>https://ksatimetable.herokuapp.com</t>
@@ -437,7 +433,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -499,6 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,11 +505,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -815,9 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -846,10 +843,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -879,8 +876,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1"/>
       <c r="D3" s="6" t="str">
         <f>IF(ISBLANK(데이터!E6),IF(ISBLANK(데이터!F6),"",HYPERLINK(데이터!F6, 데이터!F1)),HYPERLINK(데이터!E6, 데이터!E1))</f>
@@ -900,10 +897,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
@@ -933,8 +930,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7" t="str">
         <f>IF(ISBLANK(데이터!E2),IF(ISBLANK(데이터!F2),"",HYPERLINK(데이터!F2, 데이터!F1)),HYPERLINK(데이터!E2, 데이터!E1))</f>
@@ -954,10 +951,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="str">
@@ -982,8 +979,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="7" t="str">
         <f>IF(ISBLANK(데이터!E2),IF(ISBLANK(데이터!F2),"",HYPERLINK(데이터!F2, 데이터!F1)),HYPERLINK(데이터!E2, 데이터!E1))</f>
         <v/>
@@ -1000,10 +997,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="str">
@@ -1033,8 +1030,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7" t="str">
         <f>IF(ISBLANK(데이터!E2),IF(ISBLANK(데이터!F2),"",HYPERLINK(데이터!F2, 데이터!F1)),HYPERLINK(데이터!E2, 데이터!E1))</f>
         <v/>
@@ -1054,21 +1051,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="str">
@@ -1098,8 +1095,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8" t="str">
         <f>IF(ISBLANK(데이터!E3),IF(ISBLANK(데이터!F3),"",HYPERLINK(데이터!F3, 데이터!F1)),HYPERLINK(데이터!E3, 데이터!E1))</f>
         <v/>
@@ -1119,10 +1116,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="str">
@@ -1157,8 +1154,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="9" t="str">
         <f>IF(ISBLANK(데이터!E4),IF(ISBLANK(데이터!F4),"",HYPERLINK(데이터!F4, 데이터!F1)),HYPERLINK(데이터!E4, 데이터!E1))</f>
         <v>Google Meet</v>
@@ -1181,10 +1178,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="str">
@@ -1204,8 +1201,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="17" t="str">
         <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
         <v/>
@@ -1219,10 +1216,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="str">
@@ -1237,8 +1234,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="17" t="str">
         <f>IF(ISBLANK(데이터!E10),IF(ISBLANK(데이터!F10),"",HYPERLINK(데이터!F10, 데이터!F11)),HYPERLINK(데이터!E10, 데이터!E11))</f>
         <v/>
@@ -1249,10 +1246,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
@@ -1262,8 +1259,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1271,21 +1268,21 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1"/>
@@ -1295,8 +1292,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1304,10 +1301,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1"/>
@@ -1317,8 +1314,8 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1359,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1370,7 +1367,7 @@
     <col min="7" max="7" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1390,12 +1387,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>60</v>
+      <c r="B2" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1403,15 +1400,15 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>61</v>
+      <c r="B3" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1419,15 +1416,15 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>62</v>
+      <c r="B4" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1435,17 +1432,17 @@
       <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E4" s="26"/>
+      <c r="F4" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>63</v>
+      <c r="B5" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1453,17 +1450,17 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>64</v>
+      <c r="B6" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1471,17 +1468,17 @@
       <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>65</v>
+      <c r="B7" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1489,17 +1486,17 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>66</v>
+      <c r="B8" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1507,17 +1504,17 @@
       <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>67</v>
+      <c r="B9" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1525,17 +1522,17 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>68</v>
+      <c r="B10" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1543,55 +1540,52 @@
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G12" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H14" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="23" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H16" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="H15" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
     <hyperlink ref="E7" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
@@ -1600,5 +1594,6 @@
     <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>